--- a/data/trans_dic/P22$concerEmp-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P22$concerEmp-Estudios-trans_dic.xlsx
@@ -708,10 +708,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.007551801894521871</v>
+        <v>0.008024749434286176</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0008189553747882918</v>
+        <v>0.0008218710307742319</v>
       </c>
       <c r="E5" s="5" t="inlineStr"/>
       <c r="F5" s="5" t="n">
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.004371021762717876</v>
+        <v>0.003975846898023126</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.0004270264043989999</v>
+        <v>0.0004441462281781834</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02326013615204078</v>
+        <v>0.02309298197988089</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.008393807288683988</v>
+        <v>0.008247094617240262</v>
       </c>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>0.007592890815504627</v>
+        <v>0.008634858190244669</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.004409139738681065</v>
+        <v>0.004781750875968267</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.004936468331592038</v>
+        <v>0.003645893646263258</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.004475241709091099</v>
+        <v>0.004230705533392511</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.00243036520265484</v>
+        <v>0.00263183276641432</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01122154351954723</v>
+        <v>0.01098669276886818</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.00406066551162928</v>
+        <v>0.003795755841526223</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.002533762932394213</v>
+        <v>0.002555144150381153</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.003934147782995885</v>
+        <v>0.003702579835796403</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01848274559041515</v>
+        <v>0.01878103680843093</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.009387323063097322</v>
+        <v>0.009851912569416281</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.002541338844340762</v>
+        <v>0.002338244215030945</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.008796405912685743</v>
+        <v>0.008390275424503914</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.001473445614844687</v>
+        <v>0.001883937609453721</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0005646651084528509</v>
+        <v>0.0005864044331088771</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.001011637360039114</v>
+        <v>0.001035121047413431</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.003200992986683166</v>
+        <v>0.00334312489733673</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01087528276815248</v>
+        <v>0.01107934183556094</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.005826520379803598</v>
+        <v>0.00585094676764895</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.002339899711925172</v>
+        <v>0.002228879615679081</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.006702686655015776</v>
+        <v>0.006899786505224529</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03457473245521424</v>
+        <v>0.03419834584365526</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02076668544115038</v>
+        <v>0.02133349759693696</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.009853821917400772</v>
+        <v>0.0100778103434517</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02043027850345446</v>
+        <v>0.01959735534379635</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.008264755253122475</v>
+        <v>0.008620196475645622</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.005101247186901734</v>
+        <v>0.005664688438755242</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.006303673485737431</v>
+        <v>0.006485051172557627</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.008507776458337543</v>
+        <v>0.008274710070523298</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01938643071589823</v>
+        <v>0.01986386455392434</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.01212856755461707</v>
+        <v>0.01244803365938618</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.007075928312796255</v>
+        <v>0.006782960498014256</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.01287751594756478</v>
+        <v>0.01303171866514453</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>0.01569218590003807</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.02891105660777083</v>
+        <v>0.02891105660777082</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.02094130893064581</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01763790336401703</v>
+        <v>0.01757335282619658</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.006395424428906066</v>
+        <v>0.006129352371522439</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.006659378038080374</v>
+        <v>0.00663970734278695</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0175979572501105</v>
+        <v>0.01648911623253559</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01045985897662163</v>
+        <v>0.01020491189540547</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.008397833095508199</v>
+        <v>0.007115374788063017</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.003733558300201131</v>
+        <v>0.003748103385425115</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.009543518862955019</v>
+        <v>0.009099280013836053</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01808065941784717</v>
+        <v>0.01692966632296635</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.009771220712726852</v>
+        <v>0.0090639513578418</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.007226655827916683</v>
+        <v>0.007370134089645205</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.015179917588136</v>
+        <v>0.01468380352457825</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04835700930755612</v>
+        <v>0.0486261288397966</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03694934944297144</v>
+        <v>0.03455921532895714</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0324551074005875</v>
+        <v>0.03125753379489111</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04788912457665274</v>
+        <v>0.04523606618780176</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03595125677524138</v>
+        <v>0.03728084820429069</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03280963791295417</v>
+        <v>0.03195635853641616</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02209770263388726</v>
+        <v>0.02265468404615231</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02821162078865242</v>
+        <v>0.02804646834151105</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03829630360408074</v>
+        <v>0.03714298816652389</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02806849770335005</v>
+        <v>0.02852796736065041</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.02264760142374841</v>
+        <v>0.02182340783076041</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.03208711325200947</v>
+        <v>0.03227040441469105</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>0.003626094615920931</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.006464055035239186</v>
+        <v>0.006464055035239187</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.01377298784184549</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01747109649759849</v>
+        <v>0.01758836350316591</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.007694668728758205</v>
+        <v>0.007559473650597168</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.003035439444012791</v>
+        <v>0.003437253143237005</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.009991286035419461</v>
+        <v>0.01078250353383321</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.003285782435566245</v>
+        <v>0.003426860698334333</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.002030054347367498</v>
+        <v>0.002026911568602132</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.001967559304141676</v>
+        <v>0.001957448835206553</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.004548554322709098</v>
+        <v>0.004466401939592686</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01115108580643703</v>
+        <v>0.01129066042549608</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.005529007433976862</v>
+        <v>0.005700555149103047</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.003009083967389172</v>
+        <v>0.003240020114170952</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.008309343769711668</v>
+        <v>0.008377245357400434</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02827783261126601</v>
+        <v>0.02794237233392633</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01589547047125199</v>
+        <v>0.01577984129006947</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.009201056969098778</v>
+        <v>0.009569501148977</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.01989637692210114</v>
+        <v>0.02015081713344668</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.008649676530624028</v>
+        <v>0.008369756652897868</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.00599379727054984</v>
+        <v>0.006080704069200468</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.006020470531083576</v>
+        <v>0.006121092084850001</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.009082290187150562</v>
+        <v>0.009296941423487292</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01712282663454348</v>
+        <v>0.0168968003198793</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.00977482503859638</v>
+        <v>0.009726196129145494</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.00675234406282049</v>
+        <v>0.00685803632988689</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.01381261861453312</v>
+        <v>0.01339609311670349</v>
       </c>
     </row>
     <row r="16">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>7770</v>
+        <v>8257</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="E6" s="6" t="inlineStr"/>
       <c r="F6" s="6" t="n">
@@ -1481,10 +1481,10 @@
         <v>0</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>10242</v>
+        <v>9316</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>987</v>
+        <v>1027</v>
       </c>
       <c r="M6" s="6" t="n">
         <v>0</v>
@@ -1501,38 +1501,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>23932</v>
+        <v>23760</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>8181</v>
+        <v>8038</v>
       </c>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="n">
-        <v>4393</v>
+        <v>4996</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>5795</v>
+        <v>6284</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>6604</v>
+        <v>4877</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>4434</v>
+        <v>4191</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>1996</v>
+        <v>2162</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>26294</v>
+        <v>25743</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>9390</v>
+        <v>8777</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>4419</v>
+        <v>4456</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>5507</v>
+        <v>5183</v>
       </c>
     </row>
     <row r="8">
@@ -1635,40 +1635,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>31233</v>
+        <v>31737</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>18427</v>
+        <v>19339</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>5270</v>
+        <v>4849</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>19621</v>
+        <v>18715</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>2338</v>
+        <v>2989</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>993</v>
+        <v>1031</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>2010</v>
+        <v>2056</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>6947</v>
+        <v>7256</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>35631</v>
+        <v>36300</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>21679</v>
+        <v>21770</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>9500</v>
+        <v>9049</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>29498</v>
+        <v>30365</v>
       </c>
     </row>
     <row r="11">
@@ -1679,40 +1679,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>58426</v>
+        <v>57790</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>40765</v>
+        <v>41877</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>20433</v>
+        <v>20897</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>45571</v>
+        <v>43713</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>13112</v>
+        <v>13676</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>8967</v>
+        <v>9957</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>12522</v>
+        <v>12882</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>18465</v>
+        <v>17959</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>63517</v>
+        <v>65081</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>45128</v>
+        <v>46316</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>28729</v>
+        <v>27539</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>56673</v>
+        <v>57351</v>
       </c>
     </row>
     <row r="12">
@@ -1815,40 +1815,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>9726</v>
+        <v>9690</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3077</v>
+        <v>2949</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3636</v>
+        <v>3625</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>12522</v>
+        <v>11733</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>4983</v>
+        <v>4862</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>3852</v>
+        <v>3263</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>2050</v>
+        <v>2058</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>7013</v>
+        <v>6687</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>18584</v>
+        <v>17401</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>9183</v>
+        <v>8518</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>7914</v>
+        <v>8071</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>21957</v>
+        <v>21240</v>
       </c>
     </row>
     <row r="15">
@@ -1859,40 +1859,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>26664</v>
+        <v>26813</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>17779</v>
+        <v>16629</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>17718</v>
+        <v>17064</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>34077</v>
+        <v>32189</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>17128</v>
+        <v>17761</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>15048</v>
+        <v>14656</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>12135</v>
+        <v>12441</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>20732</v>
+        <v>20611</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>39362</v>
+        <v>38176</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>26379</v>
+        <v>26811</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>24801</v>
+        <v>23898</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>46413</v>
+        <v>46678</v>
       </c>
     </row>
     <row r="16">
@@ -1995,40 +1995,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>57133</v>
+        <v>57516</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>26307</v>
+        <v>25844</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>10238</v>
+        <v>11593</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>35176</v>
+        <v>37962</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>11097</v>
+        <v>11573</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>7215</v>
+        <v>7204</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>6938</v>
+        <v>6903</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>16950</v>
+        <v>16644</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>74125</v>
+        <v>75052</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>38554</v>
+        <v>39750</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>20760</v>
+        <v>22353</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>60219</v>
+        <v>60712</v>
       </c>
     </row>
     <row r="19">
@@ -2039,40 +2039,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>92472</v>
+        <v>91375</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>54343</v>
+        <v>53948</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>31032</v>
+        <v>32275</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>70049</v>
+        <v>70945</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>29211</v>
+        <v>28266</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>21303</v>
+        <v>21612</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>21230</v>
+        <v>21585</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>33845</v>
+        <v>34645</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>113821</v>
+        <v>112318</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>68160</v>
+        <v>67821</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>46584</v>
+        <v>47314</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>100103</v>
+        <v>97084</v>
       </c>
     </row>
     <row r="20">
